--- a/BoundyShooter/BoundyShooter/Content/hard.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/hard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="19">
   <si>
     <t>w</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -519,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9830,7 +9838,7 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -9839,7 +9847,7 @@
         <v>4</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -9860,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="L187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M187" t="s">
         <v>4</v>
@@ -9888,11 +9896,11 @@
       <c r="D188">
         <v>0</v>
       </c>
-      <c r="E188">
-        <v>1</v>
+      <c r="E188" t="s">
+        <v>17</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -9907,10 +9915,10 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>0</v>
-      </c>
-      <c r="L188">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L188" t="s">
+        <v>17</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -9930,7 +9938,7 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -9939,10 +9947,10 @@
         <v>4</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -9957,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="K189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M189" t="s">
         <v>4</v>
@@ -9988,11 +9996,11 @@
       <c r="D190">
         <v>0</v>
       </c>
-      <c r="E190">
-        <v>1</v>
+      <c r="E190" t="s">
+        <v>18</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -10007,10 +10015,10 @@
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
-      </c>
-      <c r="L190">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L190" t="s">
+        <v>17</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -10030,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -10039,10 +10047,10 @@
         <v>4</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -10057,10 +10065,10 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191" t="s">
         <v>4</v>
@@ -10088,11 +10096,11 @@
       <c r="D192">
         <v>0</v>
       </c>
-      <c r="E192">
-        <v>1</v>
+      <c r="E192" t="s">
+        <v>17</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -10107,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="K192">
-        <v>0</v>
-      </c>
-      <c r="L192">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L192" t="s">
+        <v>17</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -10130,7 +10138,7 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -10139,7 +10147,7 @@
         <v>4</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -10160,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193" t="s">
         <v>4</v>

--- a/BoundyShooter/BoundyShooter/Content/hard.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/hard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="22">
   <si>
     <t>w</t>
     <phoneticPr fontId="1"/>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EJ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -527,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2402,8 +2414,8 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
-        <v>0</v>
+      <c r="G38" t="s">
+        <v>19</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2411,8 +2423,8 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="J38" t="s">
+        <v>21</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2699,8 +2711,8 @@
       <c r="E44">
         <v>0</v>
       </c>
-      <c r="F44">
-        <v>0</v>
+      <c r="F44" t="s">
+        <v>20</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2714,8 +2726,8 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44">
-        <v>0</v>
+      <c r="K44" t="s">
+        <v>19</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4793,8 +4805,8 @@
       <c r="C86">
         <v>0</v>
       </c>
-      <c r="D86">
-        <v>0</v>
+      <c r="D86" t="s">
+        <v>19</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5043,8 +5055,8 @@
       <c r="C91">
         <v>0</v>
       </c>
-      <c r="D91">
-        <v>0</v>
+      <c r="D91" t="s">
+        <v>19</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5349,20 +5361,20 @@
       <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97">
-        <v>0</v>
+      <c r="F97" t="s">
+        <v>19</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97">
-        <v>0</v>
+      <c r="H97" t="s">
+        <v>19</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97">
-        <v>0</v>
+      <c r="J97" t="s">
+        <v>19</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5770,8 +5782,8 @@
       <c r="L105">
         <v>0</v>
       </c>
-      <c r="M105">
-        <v>0</v>
+      <c r="M105" t="s">
+        <v>19</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5790,8 +5802,8 @@
       <c r="B106">
         <v>0</v>
       </c>
-      <c r="C106">
-        <v>0</v>
+      <c r="C106" t="s">
+        <v>19</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5867,8 +5879,8 @@
       <c r="K107">
         <v>0</v>
       </c>
-      <c r="L107">
-        <v>0</v>
+      <c r="L107" t="s">
+        <v>19</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -5923,8 +5935,8 @@
       <c r="M108">
         <v>0</v>
       </c>
-      <c r="N108">
-        <v>0</v>
+      <c r="N108" t="s">
+        <v>19</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -5946,8 +5958,8 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109">
-        <v>0</v>
+      <c r="E109" t="s">
+        <v>19</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6020,8 +6032,8 @@
       <c r="L110">
         <v>0</v>
       </c>
-      <c r="M110">
-        <v>0</v>
+      <c r="M110" t="s">
+        <v>19</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6667,14 +6679,14 @@
       <c r="K123">
         <v>0</v>
       </c>
-      <c r="L123">
-        <v>0</v>
+      <c r="L123" t="s">
+        <v>19</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
-      <c r="N123">
-        <v>0</v>
+      <c r="N123" t="s">
+        <v>19</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -6858,14 +6870,14 @@
       <c r="H127">
         <v>0</v>
       </c>
-      <c r="I127">
-        <v>0</v>
+      <c r="I127" t="s">
+        <v>19</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
-      <c r="K127">
-        <v>0</v>
+      <c r="K127" t="s">
+        <v>19</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -7046,8 +7058,8 @@
       <c r="D131">
         <v>0</v>
       </c>
-      <c r="E131">
-        <v>0</v>
+      <c r="E131" t="s">
+        <v>19</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -7193,8 +7205,8 @@
       <c r="C134">
         <v>0</v>
       </c>
-      <c r="D134">
-        <v>0</v>
+      <c r="D134" t="s">
+        <v>19</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -8414,8 +8426,8 @@
       <c r="J158">
         <v>0</v>
       </c>
-      <c r="K158">
-        <v>0</v>
+      <c r="K158" t="s">
+        <v>19</v>
       </c>
       <c r="L158">
         <v>0</v>
@@ -8564,8 +8576,8 @@
       <c r="J161">
         <v>0</v>
       </c>
-      <c r="K161">
-        <v>0</v>
+      <c r="K161" t="s">
+        <v>19</v>
       </c>
       <c r="L161">
         <v>0</v>
@@ -8714,8 +8726,8 @@
       <c r="J164">
         <v>0</v>
       </c>
-      <c r="K164">
-        <v>0</v>
+      <c r="K164" t="s">
+        <v>19</v>
       </c>
       <c r="L164">
         <v>0</v>
@@ -8864,8 +8876,8 @@
       <c r="J167">
         <v>0</v>
       </c>
-      <c r="K167">
-        <v>0</v>
+      <c r="K167" t="s">
+        <v>19</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -10299,8 +10311,8 @@
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="F196">
-        <v>0</v>
+      <c r="F196" t="s">
+        <v>20</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10314,8 +10326,8 @@
       <c r="J196">
         <v>0</v>
       </c>
-      <c r="K196">
-        <v>0</v>
+      <c r="K196" t="s">
+        <v>19</v>
       </c>
       <c r="L196">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/hard.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/hard.xlsx
@@ -109,7 +109,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EJ</t>
+    <t>Ej</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/BoundyShooter/BoundyShooter/Content/hard.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/hard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="25">
   <si>
     <t>w</t>
     <phoneticPr fontId="1"/>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1102,8 +1114,8 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -1135,8 +1147,8 @@
       <c r="M12" t="s">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="N12" t="s">
+        <v>24</v>
       </c>
       <c r="O12" t="s">
         <v>0</v>
@@ -3170,8 +3182,8 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>0</v>
+      <c r="I53" t="s">
+        <v>23</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -7905,38 +7917,38 @@
       <c r="C148" t="s">
         <v>4</v>
       </c>
-      <c r="D148">
-        <v>0</v>
+      <c r="D148" t="s">
+        <v>22</v>
       </c>
       <c r="E148" t="s">
         <v>4</v>
       </c>
-      <c r="F148">
-        <v>0</v>
+      <c r="F148" t="s">
+        <v>22</v>
       </c>
       <c r="G148" t="s">
         <v>13</v>
       </c>
-      <c r="H148">
-        <v>0</v>
+      <c r="H148" t="s">
+        <v>22</v>
       </c>
       <c r="I148" t="s">
         <v>4</v>
       </c>
-      <c r="J148">
-        <v>0</v>
+      <c r="J148" t="s">
+        <v>22</v>
       </c>
       <c r="K148" t="s">
         <v>4</v>
       </c>
-      <c r="L148">
-        <v>0</v>
+      <c r="L148" t="s">
+        <v>22</v>
       </c>
       <c r="M148" t="s">
         <v>4</v>
       </c>
-      <c r="N148">
-        <v>0</v>
+      <c r="N148" t="s">
+        <v>22</v>
       </c>
       <c r="O148" t="s">
         <v>4</v>
@@ -8708,8 +8720,8 @@
       <c r="D164" t="s">
         <v>7</v>
       </c>
-      <c r="E164">
-        <v>0</v>
+      <c r="E164" t="s">
+        <v>22</v>
       </c>
       <c r="F164" t="s">
         <v>7</v>

--- a/BoundyShooter/BoundyShooter/Content/hard.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/hard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="30">
   <si>
     <t>w</t>
     <phoneticPr fontId="1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -58,14 +54,6 @@
   </si>
   <si>
     <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -122,6 +110,38 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ej</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -551,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA231" sqref="AA231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -667,8 +687,8 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -694,8 +714,8 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="M3" t="s">
+        <v>26</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -764,8 +784,8 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -795,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
       </c>
       <c r="O5" t="s">
         <v>4</v>
@@ -811,11 +831,11 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -847,11 +867,12 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
+      <c r="N6">
+        <f>-N60</f>
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1061,14 +1082,14 @@
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1094,14 +1115,14 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
+      <c r="M11" t="s">
+        <v>23</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
+      <c r="O11" t="s">
+        <v>24</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -1112,12 +1133,12 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
@@ -1144,11 +1165,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
         <v>0</v>
@@ -2427,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2436,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2523,11 +2544,11 @@
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2535,11 +2556,11 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>23</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2567,11 +2588,11 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2579,11 +2600,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>23</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2591,11 +2612,11 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
+      <c r="L41" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" t="s">
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2617,11 +2638,11 @@
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2629,11 +2650,11 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>23</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2641,11 +2662,11 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2724,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -2739,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3033,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3118,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3183,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3271,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3298,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -3439,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L58">
         <v>0</v>
@@ -3518,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3645,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="M62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3674,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3765,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3786,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3945,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3965,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3977,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -4086,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -4198,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O73">
         <v>0</v>
@@ -4271,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -4333,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4445,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4474,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4530,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4598,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -4639,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -4818,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4832,8 +4853,8 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86">
-        <v>0</v>
+      <c r="I86" t="s">
+        <v>26</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -4942,7 +4963,7 @@
         <v>4</v>
       </c>
       <c r="L88" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M88" t="s">
         <v>4</v>
@@ -5068,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -5248,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -5374,19 +5395,19 @@
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -5580,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -5680,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -5780,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -5795,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5815,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5892,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M107">
         <v>0</v>
@@ -5948,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -5971,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6029,8 +6050,8 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>0</v>
+      <c r="H110" t="s">
+        <v>26</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -6045,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="M110" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6068,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -6348,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -6539,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L120">
         <v>0</v>
@@ -6692,13 +6713,13 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -6727,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -6883,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J127">
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L127">
         <v>0</v>
@@ -6918,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -7071,13 +7092,13 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -7086,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -7218,7 +7239,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -7424,7 +7445,7 @@
         <v>4</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
         <v>4</v>
@@ -7442,7 +7463,7 @@
         <v>4</v>
       </c>
       <c r="L138" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M138" t="s">
         <v>4</v>
@@ -7727,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -7827,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -7918,37 +7939,37 @@
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E148" t="s">
         <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I148" t="s">
         <v>4</v>
       </c>
       <c r="J148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K148" t="s">
         <v>4</v>
       </c>
       <c r="L148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M148" t="s">
         <v>4</v>
       </c>
       <c r="N148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O148" t="s">
         <v>4</v>
@@ -8027,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -8127,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -8227,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -8262,7 +8283,7 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -8274,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="F155" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -8423,8 +8444,8 @@
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="F158">
-        <v>0</v>
+      <c r="F158" t="s">
+        <v>29</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8438,8 +8459,8 @@
       <c r="J158">
         <v>0</v>
       </c>
-      <c r="K158" t="s">
-        <v>19</v>
+      <c r="K158">
+        <v>0</v>
       </c>
       <c r="L158">
         <v>0</v>
@@ -8582,14 +8603,14 @@
       <c r="H161">
         <v>0</v>
       </c>
-      <c r="I161">
-        <v>0</v>
+      <c r="I161" t="s">
+        <v>29</v>
       </c>
       <c r="J161">
         <v>0</v>
       </c>
-      <c r="K161" t="s">
-        <v>19</v>
+      <c r="K161">
+        <v>0</v>
       </c>
       <c r="L161">
         <v>0</v>
@@ -8620,8 +8641,8 @@
       <c r="D162">
         <v>0</v>
       </c>
-      <c r="E162">
-        <v>0</v>
+      <c r="E162" t="s">
+        <v>26</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -8718,13 +8739,13 @@
         <v>0</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
-      </c>
-      <c r="E164" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
       </c>
       <c r="F164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -8738,11 +8759,11 @@
       <c r="J164">
         <v>0</v>
       </c>
-      <c r="K164" t="s">
-        <v>19</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>29</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -8888,8 +8909,8 @@
       <c r="J167">
         <v>0</v>
       </c>
-      <c r="K167" t="s">
-        <v>19</v>
+      <c r="K167">
+        <v>0</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -8897,8 +8918,8 @@
       <c r="M167">
         <v>0</v>
       </c>
-      <c r="N167">
-        <v>0</v>
+      <c r="N167" t="s">
+        <v>29</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -9083,7 +9104,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J171" t="s">
         <v>4</v>
@@ -9117,8 +9138,8 @@
       <c r="C172">
         <v>0</v>
       </c>
-      <c r="D172">
-        <v>0</v>
+      <c r="D172" t="s">
+        <v>26</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -9186,7 +9207,7 @@
         <v>4</v>
       </c>
       <c r="J173" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -9318,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -9345,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="M176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9630,7 +9651,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -9862,13 +9883,13 @@
         <v>2</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
-      </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C187" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -9894,11 +9915,11 @@
       <c r="L187">
         <v>0</v>
       </c>
-      <c r="M187" t="s">
-        <v>4</v>
-      </c>
-      <c r="N187">
-        <v>0</v>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
+        <v>28</v>
       </c>
       <c r="O187" t="s">
         <v>4</v>
@@ -9914,14 +9935,14 @@
       <c r="B188">
         <v>0</v>
       </c>
-      <c r="C188" t="s">
-        <v>4</v>
-      </c>
-      <c r="D188">
-        <v>0</v>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
       </c>
       <c r="E188" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -9942,13 +9963,13 @@
         <v>1</v>
       </c>
       <c r="L188" t="s">
-        <v>17</v>
-      </c>
-      <c r="M188">
-        <v>0</v>
-      </c>
-      <c r="N188" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M188" t="s">
+        <v>23</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
       </c>
       <c r="O188">
         <v>0</v>
@@ -9962,13 +9983,13 @@
         <v>2</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
-      </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C189" t="s">
+        <v>23</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -9994,11 +10015,11 @@
       <c r="L189">
         <v>0</v>
       </c>
-      <c r="M189" t="s">
-        <v>4</v>
-      </c>
-      <c r="N189">
-        <v>0</v>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
+        <v>23</v>
       </c>
       <c r="O189" t="s">
         <v>4</v>
@@ -10014,14 +10035,14 @@
       <c r="B190">
         <v>0</v>
       </c>
-      <c r="C190" t="s">
-        <v>4</v>
-      </c>
-      <c r="D190">
-        <v>0</v>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>27</v>
       </c>
       <c r="E190" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -10042,13 +10063,13 @@
         <v>1</v>
       </c>
       <c r="L190" t="s">
-        <v>17</v>
-      </c>
-      <c r="M190">
-        <v>0</v>
-      </c>
-      <c r="N190" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="M190" t="s">
+        <v>23</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
       </c>
       <c r="O190">
         <v>0</v>
@@ -10062,13 +10083,13 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
-      </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C191" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -10094,11 +10115,11 @@
       <c r="L191">
         <v>0</v>
       </c>
-      <c r="M191" t="s">
-        <v>4</v>
-      </c>
-      <c r="N191">
-        <v>0</v>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
+        <v>23</v>
       </c>
       <c r="O191" t="s">
         <v>4</v>
@@ -10114,14 +10135,14 @@
       <c r="B192">
         <v>0</v>
       </c>
-      <c r="C192" t="s">
-        <v>4</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>23</v>
       </c>
       <c r="E192" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -10142,13 +10163,13 @@
         <v>1</v>
       </c>
       <c r="L192" t="s">
-        <v>17</v>
-      </c>
-      <c r="M192">
-        <v>0</v>
-      </c>
-      <c r="N192" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M192" t="s">
+        <v>23</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
       </c>
       <c r="O192">
         <v>0</v>
@@ -10162,13 +10183,13 @@
         <v>2</v>
       </c>
       <c r="B193" t="s">
-        <v>17</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="C193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -10194,14 +10215,14 @@
       <c r="L193">
         <v>0</v>
       </c>
-      <c r="M193" t="s">
-        <v>4</v>
-      </c>
-      <c r="N193">
-        <v>0</v>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
+        <v>23</v>
       </c>
       <c r="O193" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P193">
         <v>2</v>
@@ -10324,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -10339,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L196">
         <v>0</v>
@@ -10671,13 +10692,13 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F203">
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -10692,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M203">
         <v>0</v>
@@ -10789,7 +10810,7 @@
         <v>4</v>
       </c>
       <c r="K205" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L205" t="s">
         <v>4</v>
@@ -11089,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="K211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L211">
         <v>0</v>
@@ -11274,16 +11295,16 @@
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="H215" t="s">
-        <v>4</v>
-      </c>
-      <c r="I215">
-        <v>0</v>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215" t="s">
+        <v>23</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -11329,11 +11350,11 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="H216">
-        <v>0</v>
-      </c>
-      <c r="I216" t="s">
-        <v>4</v>
+      <c r="H216" t="s">
+        <v>23</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -11379,11 +11400,11 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="H217" t="s">
-        <v>10</v>
-      </c>
-      <c r="I217">
-        <v>0</v>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217" t="s">
+        <v>23</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -11432,8 +11453,8 @@
       <c r="H218" t="s">
         <v>4</v>
       </c>
-      <c r="I218" t="s">
-        <v>9</v>
+      <c r="I218">
+        <v>0</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -11479,8 +11500,8 @@
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="H219" t="s">
-        <v>4</v>
+      <c r="H219">
+        <v>0</v>
       </c>
       <c r="I219" t="s">
         <v>4</v>
@@ -11721,7 +11742,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -11730,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -11739,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="K224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L224">
         <v>0</v>
@@ -11748,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="N224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O224">
         <v>0</v>
@@ -11865,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -11874,7 +11895,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -11883,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -11892,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="L227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M227">
         <v>0</v>
@@ -12111,47 +12132,47 @@
       <c r="A232">
         <v>2</v>
       </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-      <c r="C232">
-        <v>0</v>
-      </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
-        <v>0</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232">
-        <v>0</v>
-      </c>
-      <c r="H232">
-        <v>0</v>
-      </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232">
-        <v>0</v>
-      </c>
-      <c r="K232">
-        <v>0</v>
-      </c>
-      <c r="L232">
-        <v>0</v>
-      </c>
-      <c r="M232">
-        <v>0</v>
-      </c>
-      <c r="N232">
-        <v>0</v>
-      </c>
-      <c r="O232">
-        <v>0</v>
+      <c r="B232" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" t="s">
+        <v>23</v>
+      </c>
+      <c r="D232" t="s">
+        <v>23</v>
+      </c>
+      <c r="E232" t="s">
+        <v>23</v>
+      </c>
+      <c r="F232" t="s">
+        <v>23</v>
+      </c>
+      <c r="G232" t="s">
+        <v>23</v>
+      </c>
+      <c r="H232" t="s">
+        <v>23</v>
+      </c>
+      <c r="I232" t="s">
+        <v>23</v>
+      </c>
+      <c r="J232" t="s">
+        <v>23</v>
+      </c>
+      <c r="K232" t="s">
+        <v>23</v>
+      </c>
+      <c r="L232" t="s">
+        <v>23</v>
+      </c>
+      <c r="M232" t="s">
+        <v>23</v>
+      </c>
+      <c r="N232" t="s">
+        <v>23</v>
+      </c>
+      <c r="O232" t="s">
+        <v>23</v>
       </c>
       <c r="P232">
         <v>2</v>
@@ -12311,47 +12332,47 @@
       <c r="A236">
         <v>2</v>
       </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>4</v>
-      </c>
-      <c r="D236" t="s">
-        <v>4</v>
-      </c>
-      <c r="E236" t="s">
-        <v>4</v>
-      </c>
-      <c r="F236" t="s">
-        <v>4</v>
-      </c>
-      <c r="G236" t="s">
-        <v>5</v>
-      </c>
-      <c r="H236" t="s">
-        <v>4</v>
-      </c>
-      <c r="I236" t="s">
-        <v>4</v>
-      </c>
-      <c r="J236" t="s">
-        <v>4</v>
-      </c>
-      <c r="K236" t="s">
-        <v>4</v>
-      </c>
-      <c r="L236" t="s">
-        <v>4</v>
-      </c>
-      <c r="M236" t="s">
-        <v>4</v>
-      </c>
-      <c r="N236" t="s">
-        <v>4</v>
-      </c>
-      <c r="O236" t="s">
-        <v>4</v>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
       </c>
       <c r="P236">
         <v>2</v>
@@ -12680,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="H243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I243">
         <v>0</v>

--- a/BoundyShooter/BoundyShooter/Content/hard.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/hard.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9756" windowHeight="7320"/>
   </bookViews>
   <sheets>
-    <sheet name="easy" sheetId="1" r:id="rId1"/>
+    <sheet name="hard" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA231" sqref="AA231"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9445,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -9460,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L178">
         <v>1</v>
@@ -9539,7 +9539,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -9566,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N180">
         <v>1</v>
@@ -9633,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -9672,7 +9672,7 @@
         <v>0</v>
       </c>
       <c r="O182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P182">
         <v>2</v>

--- a/BoundyShooter/BoundyShooter/Content/hard.xlsx
+++ b/BoundyShooter/BoundyShooter/Content/hard.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="32">
   <si>
     <t>w</t>
     <phoneticPr fontId="1"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,6 +138,18 @@
   </si>
   <si>
     <t>Ej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -571,65 +579,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K180" sqref="K180"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -674,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -682,46 +690,46 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -781,14 +789,14 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -814,14 +822,14 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" t="s">
-        <v>25</v>
+      <c r="M5">
+        <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -832,13 +840,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -864,15 +872,14 @@
       <c r="L6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>-N60</f>
-        <v>0</v>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1132,8 +1139,8 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1171,7 +1178,7 @@
       <c r="N12" t="s">
         <v>21</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
@@ -2589,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
         <v>23</v>
@@ -4854,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -6051,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -8445,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -8604,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J161">
         <v>0</v>
@@ -8642,7 +8649,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -8763,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -8919,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="N167" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O167">
         <v>0</v>
@@ -9139,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -9919,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="N187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O187" t="s">
         <v>4</v>
@@ -10039,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E190" t="s">
         <v>15</v>
